--- a/biology/Zoologie/Galago/Galago.xlsx
+++ b/biology/Zoologie/Galago/Galago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galago est un genre qui rassemble des primates d'Afrique de la famille des Galagonidae et comprenant un nombre d'espèces variable selon les auteurs. Ils ont pour nom usuel « galago », comme tous les membres de la famille des Galagonidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces petits primates possèdent une queue plus longue que le corps, au bout touffu et pouvant aller jusqu’à 30 centimètres. Sur leur face large se remarquent deux petites oreilles pointues et deux grands yeux noirs globuleux. Les galagos peuvent mesurer de 20 à 80 centimètres et sont pourvus d'une fourrure laineuse et molle d’une teinte grisâtre ou brunâtre. Leur regard est fixe.
 Leurs pattes munies de griffes très solides leur servent à monter facilement et agilement aux arbres.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite exclusivement en Afrique dans les savanes arbustives, dans des plantations, dans les jardins et parfois dans les régions montagneuses. Il se loge dans les creux des arbres, qu’il creuse à l’aide de ses griffes. On peut en apercevoir dans le sud de l’Afrique et le sud du Sahara.
 On peut aussi trouver certains galagos à Madagascar ou sur certaines îles alentour.
@@ -575,10 +591,12 @@
           <t>Régime alimentaire et mœurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le galago est omnivore et se nourri en général de la gomme des arbres, d'insectes, de coléoptères, de jeunes pousses et de fleurs, mais il peut parfois s’en prendre à des petits mammifères.
-Ce petit primate se déplace en sautant d’arbre en arbre, un peu comme un kangourou. Son activité est essentiellement nocturne. Pour marquer son territoire, il humecte ses pattes d'urine, laquelle imprègne de son odeur tous les lieux où il passe. Lorsqu'il se sent menacé, le galago se place en position de boxeur, en crachant et en jacassant. Il est rapide et précis dans ses mouvements et peut faire des bonds atteignant cinq mètres de hauteur. On a observé que les chimpanzés chassaient et dévoraient les galagos en se servant de lances[1].
+Ce petit primate se déplace en sautant d’arbre en arbre, un peu comme un kangourou. Son activité est essentiellement nocturne. Pour marquer son territoire, il humecte ses pattes d'urine, laquelle imprègne de son odeur tous les lieux où il passe. Lorsqu'il se sent menacé, le galago se place en position de boxeur, en crachant et en jacassant. Il est rapide et précis dans ses mouvements et peut faire des bonds atteignant cinq mètres de hauteur. On a observé que les chimpanzés chassaient et dévoraient les galagos en se servant de lances.
 </t>
         </is>
       </c>
@@ -607,59 +625,98 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1796 par le zoologiste français Étienne Geoffroy Saint-Hilaire (1772-1844).
-Liste des espèces
-Selon la troisième édition de Mammal Species of the World, de 2005 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1796 par le zoologiste français Étienne Geoffroy Saint-Hilaire (1772-1844).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Galago</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galago</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la troisième édition de Mammal Species of the World, de 2005 :
 Groupe de Galago senegalensis
-Galago senegalensis É. Geoffroy Saint-Hilaire, 1796 — Galago du Sénégal[2],[3]
+Galago senegalensis É. Geoffroy Saint-Hilaire, 1796 — Galago du Sénégal,
 Galago moholi A. Smith, 1836
-Galago gallarum Thomas, 1901 - Galago de Somalie[2]
+Galago gallarum Thomas, 1901 - Galago de Somalie
 Groupe de Galago matschiei
-Galago matschiei Lorenz, 1917 - Galago du Congo[2],[3]
+Galago matschiei Lorenz, 1917 - Galago du Congo,
 Groupe de Galago alleni
-Galago alleni Waterhouse, 1838 — Galago d'Allen[2]
+Galago alleni Waterhouse, 1838 — Galago d'Allen
 Galago gabonensis Gray, 1863 — Galago du Gabon
 Galago cameronensis Peters, 1876 — Galago du Cameroun
 Groupe de Galago zanzibaricus
-Galago zanzibaricus Matschie, 1893 — Galago de Zanzibar[2]
+Galago zanzibaricus Matschie, 1893 — Galago de Zanzibar
 Galago granti Thomas &amp; Wroughton, 1907
 Galago nyasae Elliot, 1907 — Galago du Malawi
 Groupe de Galago orinus
 Galago orinus Lawrence &amp; Washburn, 1936
 Galago rondoensis Honess, 1997 - Galago de Rondo
 Groupe de Galago demidoff
-Galago demidoff G. Fischer, 1806 — Galago de Demidoff[2]
-Galago thomasi Elliot, 1907 — Galago de Thomas[2]</t>
+Galago demidoff G. Fischer, 1806 — Galago de Demidoff
+Galago thomasi Elliot, 1907 — Galago de Thomas</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Galago</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Galago</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Relations avec l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bernhard Grzimek avait apprivoisé un galago. Il en est de même de George Cansdale qui a consacré un ouvrage à son « bushbaby ».</t>
         </is>
